--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.186504</v>
+        <v>0.7169949999999999</v>
       </c>
       <c r="H2">
-        <v>0.559512</v>
+        <v>2.150985</v>
       </c>
       <c r="I2">
-        <v>0.0009474183894496628</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="J2">
-        <v>0.0009474183894496627</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.777551666666666</v>
+        <v>10.82167433333333</v>
       </c>
       <c r="N2">
-        <v>26.332655</v>
+        <v>32.465023</v>
       </c>
       <c r="O2">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="P2">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="Q2">
-        <v>1.63704849604</v>
+        <v>7.759086388628333</v>
       </c>
       <c r="R2">
-        <v>14.73343646436</v>
+        <v>69.831777497655</v>
       </c>
       <c r="S2">
-        <v>7.062831733037639E-05</v>
+        <v>0.0003335262976550612</v>
       </c>
       <c r="T2">
-        <v>7.062831733037637E-05</v>
+        <v>0.0003335262976550612</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.186504</v>
+        <v>0.7169949999999999</v>
       </c>
       <c r="H3">
-        <v>0.559512</v>
+        <v>2.150985</v>
       </c>
       <c r="I3">
-        <v>0.0009474183894496628</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="J3">
-        <v>0.0009474183894496627</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.141407</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N3">
         <v>108.424221</v>
       </c>
       <c r="O3">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="P3">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="Q3">
-        <v>6.740516971128001</v>
+        <v>25.91320811196501</v>
       </c>
       <c r="R3">
-        <v>60.664652740152</v>
+        <v>233.218873007685</v>
       </c>
       <c r="S3">
-        <v>0.0002908107931800595</v>
+        <v>0.001113885827410754</v>
       </c>
       <c r="T3">
-        <v>0.0002908107931800595</v>
+        <v>0.001113885827410754</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.186504</v>
+        <v>0.7169949999999999</v>
       </c>
       <c r="H4">
-        <v>0.559512</v>
+        <v>2.150985</v>
       </c>
       <c r="I4">
-        <v>0.0009474183894496628</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="J4">
-        <v>0.0009474183894496627</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.24393266666667</v>
+        <v>26.40107466666666</v>
       </c>
       <c r="N4">
-        <v>54.731798</v>
+        <v>79.20322399999999</v>
       </c>
       <c r="O4">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="P4">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="Q4">
-        <v>3.402566418064</v>
+        <v>18.92943853062666</v>
       </c>
       <c r="R4">
-        <v>30.623097762576</v>
+        <v>170.36494677564</v>
       </c>
       <c r="S4">
-        <v>0.0001467992801032049</v>
+        <v>0.0008136867194908343</v>
       </c>
       <c r="T4">
-        <v>0.0001467992801032049</v>
+        <v>0.0008136867194908344</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.186504</v>
+        <v>0.7169949999999999</v>
       </c>
       <c r="H5">
-        <v>0.559512</v>
+        <v>2.150985</v>
       </c>
       <c r="I5">
-        <v>0.0009474183894496628</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="J5">
-        <v>0.0009474183894496627</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.580447</v>
+        <v>45.11859966666666</v>
       </c>
       <c r="N5">
-        <v>163.741341</v>
+        <v>135.355799</v>
       </c>
       <c r="O5">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="P5">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="Q5">
-        <v>10.179471687288</v>
+        <v>32.34981036800166</v>
       </c>
       <c r="R5">
-        <v>91.615245185592</v>
+        <v>291.148293312015</v>
       </c>
       <c r="S5">
-        <v>0.0004391799988360221</v>
+        <v>0.001390564808982659</v>
       </c>
       <c r="T5">
-        <v>0.000439179998836022</v>
+        <v>0.001390564808982659</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>574.431976</v>
       </c>
       <c r="I6">
-        <v>0.9726822973418038</v>
+        <v>0.9751961860217362</v>
       </c>
       <c r="J6">
-        <v>0.9726822973418037</v>
+        <v>0.9751961860217361</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.777551666666666</v>
+        <v>10.82167433333333</v>
       </c>
       <c r="N6">
-        <v>26.332655</v>
+        <v>32.465023</v>
       </c>
       <c r="O6">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="P6">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="Q6">
-        <v>1680.702116108475</v>
+        <v>2072.10525697505</v>
       </c>
       <c r="R6">
-        <v>15126.31904497628</v>
+        <v>18648.94731277545</v>
       </c>
       <c r="S6">
-        <v>0.07251169570204598</v>
+        <v>0.08906997036704625</v>
       </c>
       <c r="T6">
-        <v>0.07251169570204596</v>
+        <v>0.08906997036704624</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>574.431976</v>
       </c>
       <c r="I7">
-        <v>0.9726822973418038</v>
+        <v>0.9751961860217362</v>
       </c>
       <c r="J7">
-        <v>0.9726822973418037</v>
+        <v>0.9751961860217361</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.141407</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N7">
         <v>108.424221</v>
       </c>
       <c r="O7">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="P7">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="Q7">
-        <v>6920.25994614341</v>
+        <v>6920.259946143411</v>
       </c>
       <c r="R7">
         <v>62282.3395152907</v>
       </c>
       <c r="S7">
-        <v>0.2985655688681367</v>
+        <v>0.2974691301324529</v>
       </c>
       <c r="T7">
-        <v>0.2985655688681366</v>
+        <v>0.2974691301324529</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>574.431976</v>
       </c>
       <c r="I8">
-        <v>0.9726822973418038</v>
+        <v>0.9751961860217362</v>
       </c>
       <c r="J8">
-        <v>0.9726822973418037</v>
+        <v>0.9751961860217361</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.24393266666667</v>
+        <v>26.40107466666666</v>
       </c>
       <c r="N8">
-        <v>54.731798</v>
+        <v>79.20322399999999</v>
       </c>
       <c r="O8">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="P8">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="Q8">
-        <v>3493.29943057476</v>
+        <v>5055.207163098957</v>
       </c>
       <c r="R8">
-        <v>31439.69487517285</v>
+        <v>45496.86446789061</v>
       </c>
       <c r="S8">
-        <v>0.150713837317272</v>
+        <v>0.2172993629067974</v>
       </c>
       <c r="T8">
-        <v>0.150713837317272</v>
+        <v>0.2172993629067974</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>574.431976</v>
       </c>
       <c r="I9">
-        <v>0.9726822973418038</v>
+        <v>0.9751961860217362</v>
       </c>
       <c r="J9">
-        <v>0.9726822973418037</v>
+        <v>0.9751961860217361</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.580447</v>
+        <v>45.11859966666666</v>
       </c>
       <c r="N9">
-        <v>163.741341</v>
+        <v>135.355799</v>
       </c>
       <c r="O9">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="P9">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="Q9">
-        <v>10450.91800705776</v>
+        <v>8639.188786958755</v>
       </c>
       <c r="R9">
-        <v>94058.26206351981</v>
+        <v>77752.69908262881</v>
       </c>
       <c r="S9">
-        <v>0.4508911954543492</v>
+        <v>0.3713577226154396</v>
       </c>
       <c r="T9">
-        <v>0.4508911954543491</v>
+        <v>0.3713577226154396</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.789462333333333</v>
+        <v>4.138615666666666</v>
       </c>
       <c r="H10">
-        <v>14.368387</v>
+        <v>12.415847</v>
       </c>
       <c r="I10">
-        <v>0.02432990547214264</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="J10">
-        <v>0.02432990547214263</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.777551666666666</v>
+        <v>10.82167433333333</v>
       </c>
       <c r="N10">
-        <v>26.332655</v>
+        <v>32.465023</v>
       </c>
       <c r="O10">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="P10">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="Q10">
-        <v>42.03975308638721</v>
+        <v>44.78675093549789</v>
       </c>
       <c r="R10">
-        <v>378.357777777485</v>
+        <v>403.080758419481</v>
       </c>
       <c r="S10">
-        <v>0.001813750190454637</v>
+        <v>0.001925169855745949</v>
       </c>
       <c r="T10">
-        <v>0.001813750190454636</v>
+        <v>0.001925169855745948</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.789462333333333</v>
+        <v>4.138615666666666</v>
       </c>
       <c r="H11">
-        <v>14.368387</v>
+        <v>12.415847</v>
       </c>
       <c r="I11">
-        <v>0.02432990547214264</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="J11">
-        <v>0.02432990547214263</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.141407</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N11">
         <v>108.424221</v>
       </c>
       <c r="O11">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="P11">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="Q11">
-        <v>173.0979075001696</v>
+        <v>149.5753932255764</v>
       </c>
       <c r="R11">
-        <v>1557.881167501527</v>
+        <v>1346.178539030187</v>
       </c>
       <c r="S11">
-        <v>0.007468082936895107</v>
+        <v>0.006429536239722882</v>
       </c>
       <c r="T11">
-        <v>0.007468082936895106</v>
+        <v>0.006429536239722881</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.789462333333333</v>
+        <v>4.138615666666666</v>
       </c>
       <c r="H12">
-        <v>14.368387</v>
+        <v>12.415847</v>
       </c>
       <c r="I12">
-        <v>0.02432990547214264</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="J12">
-        <v>0.02432990547214263</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.24393266666667</v>
+        <v>26.40107466666666</v>
       </c>
       <c r="N12">
-        <v>54.731798</v>
+        <v>79.20322399999999</v>
       </c>
       <c r="O12">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="P12">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="Q12">
-        <v>87.37862831886954</v>
+        <v>109.2639012323031</v>
       </c>
       <c r="R12">
-        <v>786.4076548698259</v>
+        <v>983.3751110907278</v>
       </c>
       <c r="S12">
-        <v>0.003769836693125881</v>
+        <v>0.004696736525419804</v>
       </c>
       <c r="T12">
-        <v>0.003769836693125881</v>
+        <v>0.004696736525419803</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.789462333333333</v>
+        <v>4.138615666666666</v>
       </c>
       <c r="H13">
-        <v>14.368387</v>
+        <v>12.415847</v>
       </c>
       <c r="I13">
-        <v>0.02432990547214264</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="J13">
-        <v>0.02432990547214263</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.580447</v>
+        <v>45.11859966666666</v>
       </c>
       <c r="N13">
-        <v>163.741341</v>
+        <v>135.355799</v>
       </c>
       <c r="O13">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="P13">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="Q13">
-        <v>261.4109950429963</v>
+        <v>186.7285434385281</v>
       </c>
       <c r="R13">
-        <v>2352.698955386967</v>
+        <v>1680.556890946753</v>
       </c>
       <c r="S13">
-        <v>0.01127823565166701</v>
+        <v>0.00802657383101831</v>
       </c>
       <c r="T13">
-        <v>0.01127823565166701</v>
+        <v>0.00802657383101831</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.4016586666666667</v>
+        <v>0.014556</v>
       </c>
       <c r="H14">
-        <v>1.204976</v>
+        <v>0.043668</v>
       </c>
       <c r="I14">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="J14">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.777551666666666</v>
+        <v>10.82167433333333</v>
       </c>
       <c r="N14">
-        <v>26.332655</v>
+        <v>32.465023</v>
       </c>
       <c r="O14">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="P14">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="Q14">
-        <v>3.525579699031111</v>
+        <v>0.157520291596</v>
       </c>
       <c r="R14">
-        <v>31.73021729128</v>
+        <v>1.417682624364</v>
       </c>
       <c r="S14">
-        <v>0.0001521065273014477</v>
+        <v>6.771049712574106E-06</v>
       </c>
       <c r="T14">
-        <v>0.0001521065273014477</v>
+        <v>6.771049712574106E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.4016586666666667</v>
+        <v>0.014556</v>
       </c>
       <c r="H15">
-        <v>1.204976</v>
+        <v>0.043668</v>
       </c>
       <c r="I15">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="J15">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>36.141407</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N15">
         <v>108.424221</v>
       </c>
       <c r="O15">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="P15">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="Q15">
-        <v>14.51650934707733</v>
+        <v>0.5260743202920001</v>
       </c>
       <c r="R15">
-        <v>130.648584123696</v>
+        <v>4.734668882628001</v>
       </c>
       <c r="S15">
-        <v>0.0006262958190761509</v>
+        <v>2.261343817431213E-05</v>
       </c>
       <c r="T15">
-        <v>0.0006262958190761509</v>
+        <v>2.261343817431213E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.4016586666666667</v>
+        <v>0.014556</v>
       </c>
       <c r="H16">
-        <v>1.204976</v>
+        <v>0.043668</v>
       </c>
       <c r="I16">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="J16">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.24393266666667</v>
+        <v>26.40107466666666</v>
       </c>
       <c r="N16">
-        <v>54.731798</v>
+        <v>79.20322399999999</v>
       </c>
       <c r="O16">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="P16">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="Q16">
-        <v>7.327833669649777</v>
+        <v>0.384294042848</v>
       </c>
       <c r="R16">
-        <v>65.950503026848</v>
+        <v>3.458646385632</v>
       </c>
       <c r="S16">
-        <v>0.0003161498043681627</v>
+        <v>1.651897696484436E-05</v>
       </c>
       <c r="T16">
-        <v>0.0003161498043681627</v>
+        <v>1.651897696484436E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.4016586666666667</v>
+        <v>0.014556</v>
       </c>
       <c r="H17">
-        <v>1.204976</v>
+        <v>0.043668</v>
       </c>
       <c r="I17">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="J17">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.580447</v>
+        <v>45.11859966666666</v>
       </c>
       <c r="N17">
-        <v>163.741341</v>
+        <v>135.355799</v>
       </c>
       <c r="O17">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="P17">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="Q17">
-        <v>21.92270956809067</v>
+        <v>0.6567463367479999</v>
       </c>
       <c r="R17">
-        <v>197.304386112816</v>
+        <v>5.910717030731999</v>
       </c>
       <c r="S17">
-        <v>0.000945826645858238</v>
+        <v>2.823040796595734E-05</v>
       </c>
       <c r="T17">
-        <v>0.000945826645858238</v>
+        <v>2.823040796595734E-05</v>
       </c>
     </row>
   </sheetData>
